--- a/dataset/cleanData/dataYear/data_2013.xlsx
+++ b/dataset/cleanData/dataYear/data_2013.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -570,8 +566,8 @@
           <t>2301</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>41639</v>
+      <c r="B2" t="n">
+        <v>20131231</v>
       </c>
       <c r="C2" t="n">
         <v>150430691</v>
@@ -649,8 +645,8 @@
           <t>2305</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>41639</v>
+      <c r="B3" t="n">
+        <v>20131231</v>
       </c>
       <c r="C3" t="n">
         <v>1018111</v>
@@ -728,8 +724,8 @@
           <t>2324</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>41639</v>
+      <c r="B4" t="n">
+        <v>20131231</v>
       </c>
       <c r="C4" t="n">
         <v>287380820</v>
@@ -807,8 +803,8 @@
           <t>2331</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>41639</v>
+      <c r="B5" t="n">
+        <v>20131231</v>
       </c>
       <c r="C5" t="n">
         <v>26617279</v>
@@ -886,8 +882,8 @@
           <t>2352</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>41639</v>
+      <c r="B6" t="n">
+        <v>20131231</v>
       </c>
       <c r="C6" t="n">
         <v>47181573</v>
@@ -965,8 +961,8 @@
           <t>2353</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>41639</v>
+      <c r="B7" t="n">
+        <v>20131231</v>
       </c>
       <c r="C7" t="n">
         <v>147088855</v>
@@ -1044,8 +1040,8 @@
           <t>2356</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>41639</v>
+      <c r="B8" t="n">
+        <v>20131231</v>
       </c>
       <c r="C8" t="n">
         <v>168811543</v>
@@ -1123,8 +1119,8 @@
           <t>2357</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>41639</v>
+      <c r="B9" t="n">
+        <v>20131231</v>
       </c>
       <c r="C9" t="n">
         <v>238864019</v>
@@ -1202,8 +1198,8 @@
           <t>2362</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>41639</v>
+      <c r="B10" t="n">
+        <v>20131231</v>
       </c>
       <c r="C10" t="n">
         <v>9868395</v>
@@ -1281,8 +1277,8 @@
           <t>2364</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>41639</v>
+      <c r="B11" t="n">
+        <v>20131231</v>
       </c>
       <c r="C11" t="n">
         <v>782969</v>
@@ -1360,8 +1356,8 @@
           <t>2365</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>41639</v>
+      <c r="B12" t="n">
+        <v>20131231</v>
       </c>
       <c r="C12" t="n">
         <v>5387373</v>
@@ -1439,8 +1435,8 @@
           <t>2376</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>41639</v>
+      <c r="B13" t="n">
+        <v>20131231</v>
       </c>
       <c r="C13" t="n">
         <v>27198448</v>
@@ -1518,8 +1514,8 @@
           <t>2377</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>41639</v>
+      <c r="B14" t="n">
+        <v>20131231</v>
       </c>
       <c r="C14" t="n">
         <v>35459063</v>
@@ -1597,8 +1593,8 @@
           <t>2380</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>41639</v>
+      <c r="B15" t="n">
+        <v>20131231</v>
       </c>
       <c r="C15" t="n">
         <v>2564201</v>
@@ -1676,8 +1672,8 @@
           <t>2382</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>41639</v>
+      <c r="B16" t="n">
+        <v>20131231</v>
       </c>
       <c r="C16" t="n">
         <v>496426129</v>
@@ -1755,8 +1751,8 @@
           <t>2387</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>41639</v>
+      <c r="B17" t="n">
+        <v>20131231</v>
       </c>
       <c r="C17" t="n">
         <v>9591835</v>
@@ -1834,8 +1830,8 @@
           <t>2395</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>41639</v>
+      <c r="B18" t="n">
+        <v>20131231</v>
       </c>
       <c r="C18" t="n">
         <v>15411630</v>
@@ -1913,8 +1909,8 @@
           <t>2397</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>41639</v>
+      <c r="B19" t="n">
+        <v>20131231</v>
       </c>
       <c r="C19" t="n">
         <v>3019190</v>
@@ -1992,8 +1988,8 @@
           <t>2399</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>41639</v>
+      <c r="B20" t="n">
+        <v>20131231</v>
       </c>
       <c r="C20" t="n">
         <v>3255415</v>
@@ -2071,8 +2067,8 @@
           <t>2405</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>41639</v>
+      <c r="B21" t="n">
+        <v>20131231</v>
       </c>
       <c r="C21" t="n">
         <v>8023000</v>
@@ -2150,8 +2146,8 @@
           <t>2417</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>41639</v>
+      <c r="B22" t="n">
+        <v>20131231</v>
       </c>
       <c r="C22" t="n">
         <v>1915712</v>
@@ -2229,8 +2225,8 @@
           <t>2425</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>41639</v>
+      <c r="B23" t="n">
+        <v>20131231</v>
       </c>
       <c r="C23" t="n">
         <v>2499085</v>
@@ -2308,8 +2304,8 @@
           <t>2465</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>41639</v>
+      <c r="B24" t="n">
+        <v>20131231</v>
       </c>
       <c r="C24" t="n">
         <v>896439</v>
@@ -2387,8 +2383,8 @@
           <t>2495</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>41639</v>
+      <c r="B25" t="n">
+        <v>20131231</v>
       </c>
       <c r="C25" t="n">
         <v>3224975</v>
@@ -2466,8 +2462,8 @@
           <t>3002</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>41639</v>
+      <c r="B26" t="n">
+        <v>20131231</v>
       </c>
       <c r="C26" t="n">
         <v>1346040</v>
@@ -2545,8 +2541,8 @@
           <t>3005</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>41639</v>
+      <c r="B27" t="n">
+        <v>20131231</v>
       </c>
       <c r="C27" t="n">
         <v>12248408</v>
@@ -2624,8 +2620,8 @@
           <t>3013</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>41639</v>
+      <c r="B28" t="n">
+        <v>20131231</v>
       </c>
       <c r="C28" t="n">
         <v>1606275</v>
@@ -2703,8 +2699,8 @@
           <t>3017</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>41639</v>
+      <c r="B29" t="n">
+        <v>20131231</v>
       </c>
       <c r="C29" t="n">
         <v>16522055</v>
@@ -2782,8 +2778,8 @@
           <t>3022</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>41639</v>
+      <c r="B30" t="n">
+        <v>20131231</v>
       </c>
       <c r="C30" t="n">
         <v>13074810</v>
@@ -2861,8 +2857,8 @@
           <t>3046</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>41639</v>
+      <c r="B31" t="n">
+        <v>20131231</v>
       </c>
       <c r="C31" t="n">
         <v>1564844</v>
@@ -2940,8 +2936,8 @@
           <t>3057</t>
         </is>
       </c>
-      <c r="B32" s="2" t="n">
-        <v>41639</v>
+      <c r="B32" t="n">
+        <v>20131231</v>
       </c>
       <c r="C32" t="n">
         <v>2154057</v>
@@ -3019,8 +3015,8 @@
           <t>3060</t>
         </is>
       </c>
-      <c r="B33" s="2" t="n">
-        <v>41639</v>
+      <c r="B33" t="n">
+        <v>20131231</v>
       </c>
       <c r="C33" t="n">
         <v>4730243</v>
@@ -3098,8 +3094,8 @@
           <t>3231</t>
         </is>
       </c>
-      <c r="B34" s="2" t="n">
-        <v>41639</v>
+      <c r="B34" t="n">
+        <v>20131231</v>
       </c>
       <c r="C34" t="n">
         <v>216306422</v>
@@ -3177,8 +3173,8 @@
           <t>3416</t>
         </is>
       </c>
-      <c r="B35" s="2" t="n">
-        <v>41639</v>
+      <c r="B35" t="n">
+        <v>20131231</v>
       </c>
       <c r="C35" t="n">
         <v>979107</v>
@@ -3256,8 +3252,8 @@
           <t>3494</t>
         </is>
       </c>
-      <c r="B36" s="2" t="n">
-        <v>41639</v>
+      <c r="B36" t="n">
+        <v>20131231</v>
       </c>
       <c r="C36" t="n">
         <v>1916812</v>
@@ -3335,8 +3331,8 @@
           <t>3515</t>
         </is>
       </c>
-      <c r="B37" s="2" t="n">
-        <v>41639</v>
+      <c r="B37" t="n">
+        <v>20131231</v>
       </c>
       <c r="C37" t="n">
         <v>6849443</v>
@@ -3414,8 +3410,8 @@
           <t>3652</t>
         </is>
       </c>
-      <c r="B38" s="2" t="n">
-        <v>41639</v>
+      <c r="B38" t="n">
+        <v>20131231</v>
       </c>
       <c r="C38" t="n">
         <v>1289636</v>
@@ -3493,8 +3489,8 @@
           <t>3701</t>
         </is>
       </c>
-      <c r="B39" s="2" t="n">
-        <v>41639</v>
+      <c r="B39" t="n">
+        <v>20131231</v>
       </c>
       <c r="C39" t="n">
         <v>8176540</v>
@@ -3572,8 +3568,8 @@
           <t>3706</t>
         </is>
       </c>
-      <c r="B40" s="2" t="n">
-        <v>41639</v>
+      <c r="B40" t="n">
+        <v>20131231</v>
       </c>
       <c r="C40" t="n">
         <v>22701124</v>
@@ -3651,8 +3647,8 @@
           <t>4916</t>
         </is>
       </c>
-      <c r="B41" s="2" t="n">
-        <v>41639</v>
+      <c r="B41" t="n">
+        <v>20131231</v>
       </c>
       <c r="C41" t="n">
         <v>1393775</v>
@@ -3730,8 +3726,8 @@
           <t>4938</t>
         </is>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>41639</v>
+      <c r="B42" t="n">
+        <v>20131231</v>
       </c>
       <c r="C42" t="n">
         <v>326934979</v>
@@ -3809,8 +3805,8 @@
           <t>5215</t>
         </is>
       </c>
-      <c r="B43" s="2" t="n">
-        <v>41639</v>
+      <c r="B43" t="n">
+        <v>20131231</v>
       </c>
       <c r="C43" t="n">
         <v>1507154</v>
@@ -3888,8 +3884,8 @@
           <t>5258</t>
         </is>
       </c>
-      <c r="B44" s="2" t="n">
-        <v>41639</v>
+      <c r="B44" t="n">
+        <v>20131231</v>
       </c>
       <c r="C44" t="n">
         <v>1248965</v>
@@ -3967,8 +3963,8 @@
           <t>6117</t>
         </is>
       </c>
-      <c r="B45" s="2" t="n">
-        <v>41639</v>
+      <c r="B45" t="n">
+        <v>20131231</v>
       </c>
       <c r="C45" t="n">
         <v>1978402</v>
@@ -4046,8 +4042,8 @@
           <t>6128</t>
         </is>
       </c>
-      <c r="B46" s="2" t="n">
-        <v>41639</v>
+      <c r="B46" t="n">
+        <v>20131231</v>
       </c>
       <c r="C46" t="n">
         <v>844458</v>
@@ -4125,8 +4121,8 @@
           <t>6166</t>
         </is>
       </c>
-      <c r="B47" s="2" t="n">
-        <v>41639</v>
+      <c r="B47" t="n">
+        <v>20131231</v>
       </c>
       <c r="C47" t="n">
         <v>3719926</v>
@@ -4204,8 +4200,8 @@
           <t>6206</t>
         </is>
       </c>
-      <c r="B48" s="2" t="n">
-        <v>41639</v>
+      <c r="B48" t="n">
+        <v>20131231</v>
       </c>
       <c r="C48" t="n">
         <v>3643781</v>
@@ -4283,8 +4279,8 @@
           <t>6230</t>
         </is>
       </c>
-      <c r="B49" s="2" t="n">
-        <v>41639</v>
+      <c r="B49" t="n">
+        <v>20131231</v>
       </c>
       <c r="C49" t="n">
         <v>4392157</v>
@@ -4362,8 +4358,8 @@
           <t>6235</t>
         </is>
       </c>
-      <c r="B50" s="2" t="n">
-        <v>41639</v>
+      <c r="B50" t="n">
+        <v>20131231</v>
       </c>
       <c r="C50" t="n">
         <v>1361149</v>
@@ -4441,8 +4437,8 @@
           <t>6277</t>
         </is>
       </c>
-      <c r="B51" s="2" t="n">
-        <v>41639</v>
+      <c r="B51" t="n">
+        <v>20131231</v>
       </c>
       <c r="C51" t="n">
         <v>2871572</v>
@@ -4520,8 +4516,8 @@
           <t>6414</t>
         </is>
       </c>
-      <c r="B52" s="2" t="n">
-        <v>41639</v>
+      <c r="B52" t="n">
+        <v>20131231</v>
       </c>
       <c r="C52" t="n">
         <v>1771190</v>
@@ -4599,8 +4595,8 @@
           <t>6579</t>
         </is>
       </c>
-      <c r="B53" s="2" t="n">
-        <v>41639</v>
+      <c r="B53" t="n">
+        <v>20131231</v>
       </c>
       <c r="C53" t="n">
         <v>1970049</v>
@@ -4678,8 +4674,8 @@
           <t>6591</t>
         </is>
       </c>
-      <c r="B54" s="2" t="n">
-        <v>41639</v>
+      <c r="B54" t="n">
+        <v>20131231</v>
       </c>
       <c r="C54" t="n">
         <v>393272</v>
@@ -4757,8 +4753,8 @@
           <t>6669</t>
         </is>
       </c>
-      <c r="B55" s="2" t="n">
-        <v>41639</v>
+      <c r="B55" t="n">
+        <v>20131231</v>
       </c>
       <c r="C55" t="n">
         <v>2168401</v>
@@ -4836,8 +4832,8 @@
           <t>8114</t>
         </is>
       </c>
-      <c r="B56" s="2" t="n">
-        <v>41639</v>
+      <c r="B56" t="n">
+        <v>20131231</v>
       </c>
       <c r="C56" t="n">
         <v>1410723</v>
@@ -4915,8 +4911,8 @@
           <t>8163</t>
         </is>
       </c>
-      <c r="B57" s="2" t="n">
-        <v>41639</v>
+      <c r="B57" t="n">
+        <v>20131231</v>
       </c>
       <c r="C57" t="n">
         <v>10542072</v>
@@ -4994,8 +4990,8 @@
           <t>8210</t>
         </is>
       </c>
-      <c r="B58" s="2" t="n">
-        <v>41639</v>
+      <c r="B58" t="n">
+        <v>20131231</v>
       </c>
       <c r="C58" t="n">
         <v>2479302</v>
@@ -5073,8 +5069,8 @@
           <t>9912</t>
         </is>
       </c>
-      <c r="B59" s="2" t="n">
-        <v>41639</v>
+      <c r="B59" t="n">
+        <v>20131231</v>
       </c>
       <c r="C59" t="n">
         <v>779453</v>

--- a/dataset/cleanData/dataYear/data_2013.xlsx
+++ b/dataset/cleanData/dataYear/data_2013.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/dataset/cleanData/dataYear/data_2013.xlsx
+++ b/dataset/cleanData/dataYear/data_2013.xlsx
@@ -642,223 +642,223 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2305</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>20131231</v>
       </c>
       <c r="C3" t="n">
-        <v>1018111</v>
+        <v>216306422</v>
       </c>
       <c r="D3" t="n">
-        <v>1057651</v>
+        <v>54235352</v>
       </c>
       <c r="E3" t="n">
-        <v>2075762</v>
+        <v>270541774</v>
       </c>
       <c r="F3" t="n">
-        <v>758273</v>
+        <v>168348939</v>
       </c>
       <c r="G3" t="n">
-        <v>84567</v>
+        <v>35996817</v>
       </c>
       <c r="H3" t="n">
-        <v>842840</v>
+        <v>204345756</v>
       </c>
       <c r="I3" t="n">
-        <v>1232922</v>
+        <v>66196018</v>
       </c>
       <c r="J3" t="n">
-        <v>2075762</v>
+        <v>270541774</v>
       </c>
       <c r="K3" t="n">
-        <v>2056608</v>
+        <v>23781603</v>
       </c>
       <c r="L3" t="n">
-        <v>2056608</v>
+        <v>23781603</v>
       </c>
       <c r="M3" t="n">
-        <v>-49781</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>62994</v>
+        <v>7915187</v>
       </c>
       <c r="O3" t="n">
-        <v>202.54</v>
+        <v>-20.62</v>
       </c>
       <c r="P3" t="n">
-        <v>4.53</v>
+        <v>0.92</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.91</v>
+        <v>1.27</v>
       </c>
       <c r="R3" t="n">
-        <v>37.84</v>
+        <v>4.84</v>
       </c>
       <c r="S3" t="n">
-        <v>-17.29</v>
+        <v>0.98</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2324</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>20131231</v>
       </c>
       <c r="C4" t="n">
-        <v>287380820</v>
+        <v>6849443</v>
       </c>
       <c r="D4" t="n">
-        <v>48721994</v>
+        <v>2154262</v>
       </c>
       <c r="E4" t="n">
-        <v>336102814</v>
+        <v>9003705</v>
       </c>
       <c r="F4" t="n">
-        <v>220597261</v>
+        <v>2635505</v>
       </c>
       <c r="G4" t="n">
-        <v>15543281</v>
+        <v>20560</v>
       </c>
       <c r="H4" t="n">
-        <v>236140542</v>
+        <v>2656065</v>
       </c>
       <c r="I4" t="n">
-        <v>99962272</v>
+        <v>6347640</v>
       </c>
       <c r="J4" t="n">
-        <v>336102814</v>
+        <v>9003705</v>
       </c>
       <c r="K4" t="n">
-        <v>44134467</v>
+        <v>1150416</v>
       </c>
       <c r="L4" t="n">
-        <v>44134467</v>
+        <v>1150416</v>
       </c>
       <c r="M4" t="n">
-        <v>-2007725</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>4360382</v>
+        <v>1267141</v>
       </c>
       <c r="O4" t="n">
-        <v>-59.89</v>
+        <v>2.15</v>
       </c>
       <c r="P4" t="n">
-        <v>0.42</v>
+        <v>10.21</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.63</v>
+        <v>12.23</v>
       </c>
       <c r="R4" t="n">
-        <v>4.06</v>
+        <v>21.52</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>11.14</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2331</t>
+          <t>2305</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>20131231</v>
       </c>
       <c r="C5" t="n">
-        <v>26617279</v>
+        <v>1018111</v>
       </c>
       <c r="D5" t="n">
-        <v>8133757</v>
+        <v>1057651</v>
       </c>
       <c r="E5" t="n">
-        <v>34751036</v>
+        <v>2075762</v>
       </c>
       <c r="F5" t="n">
-        <v>15729741</v>
+        <v>758273</v>
       </c>
       <c r="G5" t="n">
-        <v>634990</v>
+        <v>84567</v>
       </c>
       <c r="H5" t="n">
-        <v>16364731</v>
+        <v>842840</v>
       </c>
       <c r="I5" t="n">
-        <v>18386305</v>
+        <v>1232922</v>
       </c>
       <c r="J5" t="n">
-        <v>34751036</v>
+        <v>2075762</v>
       </c>
       <c r="K5" t="n">
-        <v>7335801</v>
+        <v>2056608</v>
       </c>
       <c r="L5" t="n">
-        <v>7335801</v>
+        <v>2056608</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-49781</v>
       </c>
       <c r="N5" t="n">
-        <v>4029715</v>
+        <v>62994</v>
       </c>
       <c r="O5" t="n">
-        <v>855.92</v>
+        <v>202.54</v>
       </c>
       <c r="P5" t="n">
-        <v>5.53</v>
+        <v>4.53</v>
       </c>
       <c r="Q5" t="n">
-        <v>6.35</v>
+        <v>8.91</v>
       </c>
       <c r="R5" t="n">
-        <v>8.93</v>
+        <v>37.84</v>
       </c>
       <c r="S5" t="n">
-        <v>1.79</v>
+        <v>-17.29</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U5" t="n">
         <v>3</v>
@@ -870,83 +870,83 @@
         <v>2</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2352</t>
+          <t>2324</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>20131231</v>
       </c>
       <c r="C6" t="n">
-        <v>47181573</v>
+        <v>287380820</v>
       </c>
       <c r="D6" t="n">
-        <v>43430756</v>
+        <v>48721994</v>
       </c>
       <c r="E6" t="n">
-        <v>90612329</v>
+        <v>336102814</v>
       </c>
       <c r="F6" t="n">
-        <v>48707683</v>
+        <v>220597261</v>
       </c>
       <c r="G6" t="n">
-        <v>18479938</v>
+        <v>15543281</v>
       </c>
       <c r="H6" t="n">
-        <v>67187621</v>
+        <v>236140542</v>
       </c>
       <c r="I6" t="n">
-        <v>23424708</v>
+        <v>99962272</v>
       </c>
       <c r="J6" t="n">
-        <v>90612329</v>
+        <v>336102814</v>
       </c>
       <c r="K6" t="n">
-        <v>19667820</v>
+        <v>44134467</v>
       </c>
       <c r="L6" t="n">
-        <v>19667820</v>
+        <v>44134467</v>
       </c>
       <c r="M6" t="n">
-        <v>-213</v>
+        <v>-2007725</v>
       </c>
       <c r="N6" t="n">
-        <v>1726187</v>
+        <v>4360382</v>
       </c>
       <c r="O6" t="n">
-        <v>141.11</v>
+        <v>-59.89</v>
       </c>
       <c r="P6" t="n">
-        <v>1.18</v>
+        <v>0.42</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.45</v>
+        <v>0.63</v>
       </c>
       <c r="R6" t="n">
-        <v>10.56</v>
+        <v>4.06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
         <v>3</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -958,141 +958,141 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2353</t>
+          <t>2331</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>20131231</v>
       </c>
       <c r="C7" t="n">
-        <v>147088855</v>
+        <v>26617279</v>
       </c>
       <c r="D7" t="n">
-        <v>43410855</v>
+        <v>8133757</v>
       </c>
       <c r="E7" t="n">
-        <v>190499710</v>
+        <v>34751036</v>
       </c>
       <c r="F7" t="n">
-        <v>113688491</v>
+        <v>15729741</v>
       </c>
       <c r="G7" t="n">
-        <v>20559849</v>
+        <v>634990</v>
       </c>
       <c r="H7" t="n">
-        <v>134248340</v>
+        <v>16364731</v>
       </c>
       <c r="I7" t="n">
-        <v>56251370</v>
+        <v>18386305</v>
       </c>
       <c r="J7" t="n">
-        <v>190499710</v>
+        <v>34751036</v>
       </c>
       <c r="K7" t="n">
-        <v>28347268</v>
+        <v>7335801</v>
       </c>
       <c r="L7" t="n">
-        <v>28347268</v>
+        <v>7335801</v>
       </c>
       <c r="M7" t="n">
-        <v>-6054286</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-21063736</v>
+        <v>4029715</v>
       </c>
       <c r="O7" t="n">
-        <v>-733.8</v>
+        <v>855.92</v>
       </c>
       <c r="P7" t="n">
-        <v>-5.7</v>
+        <v>5.53</v>
       </c>
       <c r="Q7" t="n">
-        <v>-5.85</v>
+        <v>6.35</v>
       </c>
       <c r="R7" t="n">
-        <v>6.26</v>
+        <v>8.93</v>
       </c>
       <c r="S7" t="n">
-        <v>-3.17</v>
+        <v>1.79</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2352</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>20131231</v>
       </c>
       <c r="C8" t="n">
-        <v>168811543</v>
+        <v>47181573</v>
       </c>
       <c r="D8" t="n">
-        <v>45359593</v>
+        <v>43430756</v>
       </c>
       <c r="E8" t="n">
-        <v>214171136</v>
+        <v>90612329</v>
       </c>
       <c r="F8" t="n">
-        <v>135212247</v>
+        <v>48707683</v>
       </c>
       <c r="G8" t="n">
-        <v>17146701</v>
+        <v>18479938</v>
       </c>
       <c r="H8" t="n">
-        <v>152358948</v>
+        <v>67187621</v>
       </c>
       <c r="I8" t="n">
-        <v>61812188</v>
+        <v>23424708</v>
       </c>
       <c r="J8" t="n">
-        <v>214171136</v>
+        <v>90612329</v>
       </c>
       <c r="K8" t="n">
-        <v>35874751</v>
+        <v>19667820</v>
       </c>
       <c r="L8" t="n">
-        <v>35874751</v>
+        <v>19667820</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-213</v>
       </c>
       <c r="N8" t="n">
-        <v>8924326</v>
+        <v>1726187</v>
       </c>
       <c r="O8" t="n">
-        <v>250.84</v>
+        <v>141.11</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.45</v>
       </c>
       <c r="R8" t="n">
-        <v>4.95</v>
+        <v>10.56</v>
       </c>
       <c r="S8" t="n">
-        <v>1.63</v>
+        <v>1.31</v>
       </c>
       <c r="T8" t="n">
         <v>3</v>
@@ -1116,141 +1116,141 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2353</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>20131231</v>
       </c>
       <c r="C9" t="n">
-        <v>238864019</v>
+        <v>147088855</v>
       </c>
       <c r="D9" t="n">
-        <v>57208736</v>
+        <v>43410855</v>
       </c>
       <c r="E9" t="n">
-        <v>296072755</v>
+        <v>190499710</v>
       </c>
       <c r="F9" t="n">
-        <v>151095249</v>
+        <v>113688491</v>
       </c>
       <c r="G9" t="n">
-        <v>8006022</v>
+        <v>20559849</v>
       </c>
       <c r="H9" t="n">
-        <v>159101271</v>
+        <v>134248340</v>
       </c>
       <c r="I9" t="n">
-        <v>136971484</v>
+        <v>56251370</v>
       </c>
       <c r="J9" t="n">
-        <v>296072755</v>
+        <v>190499710</v>
       </c>
       <c r="K9" t="n">
-        <v>7427603</v>
+        <v>28347268</v>
       </c>
       <c r="L9" t="n">
-        <v>7427603</v>
+        <v>28347268</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-6054286</v>
       </c>
       <c r="N9" t="n">
-        <v>27026102</v>
+        <v>-21063736</v>
       </c>
       <c r="O9" t="n">
-        <v>-4.46</v>
+        <v>-733.8</v>
       </c>
       <c r="P9" t="n">
-        <v>4.65</v>
+        <v>-5.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>5.83</v>
+        <v>-5.85</v>
       </c>
       <c r="R9" t="n">
-        <v>12.94</v>
+        <v>6.26</v>
       </c>
       <c r="S9" t="n">
-        <v>4.28</v>
+        <v>-3.17</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2362</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>20131231</v>
       </c>
       <c r="C10" t="n">
-        <v>9868395</v>
+        <v>168811543</v>
       </c>
       <c r="D10" t="n">
-        <v>88535409</v>
+        <v>45359593</v>
       </c>
       <c r="E10" t="n">
-        <v>98403804</v>
+        <v>214171136</v>
       </c>
       <c r="F10" t="n">
-        <v>15499638</v>
+        <v>135212247</v>
       </c>
       <c r="G10" t="n">
-        <v>35219460</v>
+        <v>17146701</v>
       </c>
       <c r="H10" t="n">
-        <v>50719098</v>
+        <v>152358948</v>
       </c>
       <c r="I10" t="n">
-        <v>47684706</v>
+        <v>61812188</v>
       </c>
       <c r="J10" t="n">
-        <v>98403804</v>
+        <v>214171136</v>
       </c>
       <c r="K10" t="n">
-        <v>6891630</v>
+        <v>35874751</v>
       </c>
       <c r="L10" t="n">
-        <v>6891630</v>
+        <v>35874751</v>
       </c>
       <c r="M10" t="n">
-        <v>-537844</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>4944705</v>
+        <v>8924326</v>
       </c>
       <c r="O10" t="n">
-        <v>160.36</v>
+        <v>250.84</v>
       </c>
       <c r="P10" t="n">
-        <v>19.19</v>
+        <v>1.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.49</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>37.69</v>
+        <v>4.95</v>
       </c>
       <c r="S10" t="n">
-        <v>15.77</v>
+        <v>1.63</v>
       </c>
       <c r="T10" t="n">
         <v>3</v>
@@ -1259,478 +1259,478 @@
         <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2364</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>20131231</v>
       </c>
       <c r="C11" t="n">
-        <v>782969</v>
+        <v>238864019</v>
       </c>
       <c r="D11" t="n">
-        <v>903063</v>
+        <v>57208736</v>
       </c>
       <c r="E11" t="n">
-        <v>1686032</v>
+        <v>296072755</v>
       </c>
       <c r="F11" t="n">
-        <v>759552</v>
+        <v>151095249</v>
       </c>
       <c r="G11" t="n">
-        <v>5820</v>
+        <v>8006022</v>
       </c>
       <c r="H11" t="n">
-        <v>765372</v>
+        <v>159101271</v>
       </c>
       <c r="I11" t="n">
-        <v>920660</v>
+        <v>136971484</v>
       </c>
       <c r="J11" t="n">
-        <v>1686032</v>
+        <v>296072755</v>
       </c>
       <c r="K11" t="n">
-        <v>1901445</v>
+        <v>7427603</v>
       </c>
       <c r="L11" t="n">
-        <v>1901615</v>
+        <v>7427603</v>
       </c>
       <c r="M11" t="n">
-        <v>-409026</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-168170</v>
+        <v>27026102</v>
       </c>
       <c r="O11" t="n">
-        <v>21.1</v>
+        <v>-4.46</v>
       </c>
       <c r="P11" t="n">
-        <v>-21.32</v>
+        <v>4.65</v>
       </c>
       <c r="Q11" t="n">
-        <v>-18.43</v>
+        <v>5.83</v>
       </c>
       <c r="R11" t="n">
-        <v>17.94</v>
+        <v>12.94</v>
       </c>
       <c r="S11" t="n">
-        <v>-23.82</v>
+        <v>4.28</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X11" t="n">
         <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2365</t>
+          <t>2362</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>20131231</v>
       </c>
       <c r="C12" t="n">
-        <v>5387373</v>
+        <v>9868395</v>
       </c>
       <c r="D12" t="n">
-        <v>1745034</v>
+        <v>88535409</v>
       </c>
       <c r="E12" t="n">
-        <v>7132407</v>
+        <v>98403804</v>
       </c>
       <c r="F12" t="n">
-        <v>2548898</v>
+        <v>15499638</v>
       </c>
       <c r="G12" t="n">
-        <v>144533</v>
+        <v>35219460</v>
       </c>
       <c r="H12" t="n">
-        <v>2693431</v>
+        <v>50719098</v>
       </c>
       <c r="I12" t="n">
-        <v>4438976</v>
+        <v>47684706</v>
       </c>
       <c r="J12" t="n">
-        <v>7132407</v>
+        <v>98403804</v>
       </c>
       <c r="K12" t="n">
-        <v>2908001</v>
+        <v>6891630</v>
       </c>
       <c r="L12" t="n">
-        <v>2908001</v>
+        <v>6891630</v>
       </c>
       <c r="M12" t="n">
-        <v>-21605</v>
+        <v>-537844</v>
       </c>
       <c r="N12" t="n">
-        <v>70162</v>
+        <v>4944705</v>
       </c>
       <c r="O12" t="n">
-        <v>-65.09999999999999</v>
+        <v>160.36</v>
       </c>
       <c r="P12" t="n">
-        <v>0.2</v>
+        <v>19.19</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8</v>
+        <v>27.49</v>
       </c>
       <c r="R12" t="n">
-        <v>17.81</v>
+        <v>37.69</v>
       </c>
       <c r="S12" t="n">
-        <v>0.79</v>
+        <v>15.77</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2364</t>
         </is>
       </c>
       <c r="B13" t="n">
         <v>20131231</v>
       </c>
       <c r="C13" t="n">
-        <v>27198448</v>
+        <v>782969</v>
       </c>
       <c r="D13" t="n">
-        <v>7798954</v>
+        <v>903063</v>
       </c>
       <c r="E13" t="n">
-        <v>34997402</v>
+        <v>1686032</v>
       </c>
       <c r="F13" t="n">
-        <v>12680871</v>
+        <v>759552</v>
       </c>
       <c r="G13" t="n">
-        <v>466829</v>
+        <v>5820</v>
       </c>
       <c r="H13" t="n">
-        <v>13147700</v>
+        <v>765372</v>
       </c>
       <c r="I13" t="n">
-        <v>21849702</v>
+        <v>920660</v>
       </c>
       <c r="J13" t="n">
-        <v>34997402</v>
+        <v>1686032</v>
       </c>
       <c r="K13" t="n">
-        <v>6265714</v>
+        <v>1901445</v>
       </c>
       <c r="L13" t="n">
-        <v>6265714</v>
+        <v>1901615</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-409026</v>
       </c>
       <c r="N13" t="n">
-        <v>2732357</v>
+        <v>-168170</v>
       </c>
       <c r="O13" t="n">
-        <v>52.16</v>
+        <v>21.1</v>
       </c>
       <c r="P13" t="n">
-        <v>4.62</v>
+        <v>-21.32</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.35</v>
+        <v>-18.43</v>
       </c>
       <c r="R13" t="n">
-        <v>17.9</v>
+        <v>17.94</v>
       </c>
       <c r="S13" t="n">
-        <v>3.53</v>
+        <v>-23.82</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2377</t>
+          <t>2365</t>
         </is>
       </c>
       <c r="B14" t="n">
         <v>20131231</v>
       </c>
       <c r="C14" t="n">
-        <v>35459063</v>
+        <v>5387373</v>
       </c>
       <c r="D14" t="n">
-        <v>6181591</v>
+        <v>1745034</v>
       </c>
       <c r="E14" t="n">
-        <v>41640654</v>
+        <v>7132407</v>
       </c>
       <c r="F14" t="n">
-        <v>18462120</v>
+        <v>2548898</v>
       </c>
       <c r="G14" t="n">
-        <v>240948</v>
+        <v>144533</v>
       </c>
       <c r="H14" t="n">
-        <v>18703068</v>
+        <v>2693431</v>
       </c>
       <c r="I14" t="n">
-        <v>22937586</v>
+        <v>4438976</v>
       </c>
       <c r="J14" t="n">
-        <v>41640654</v>
+        <v>7132407</v>
       </c>
       <c r="K14" t="n">
-        <v>8448562</v>
+        <v>2908001</v>
       </c>
       <c r="L14" t="n">
-        <v>8448562</v>
+        <v>2908001</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-21605</v>
       </c>
       <c r="N14" t="n">
-        <v>2730303</v>
+        <v>70162</v>
       </c>
       <c r="O14" t="n">
-        <v>130.39</v>
+        <v>-65.09999999999999</v>
       </c>
       <c r="P14" t="n">
-        <v>2.75</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="R14" t="n">
-        <v>12.88</v>
+        <v>17.81</v>
       </c>
       <c r="S14" t="n">
-        <v>3.31</v>
+        <v>0.79</v>
       </c>
       <c r="T14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>1</v>
       </c>
       <c r="Y14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>2376</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>20131231</v>
       </c>
       <c r="C15" t="n">
-        <v>2564201</v>
+        <v>27198448</v>
       </c>
       <c r="D15" t="n">
-        <v>1841650</v>
+        <v>7798954</v>
       </c>
       <c r="E15" t="n">
-        <v>4405851</v>
+        <v>34997402</v>
       </c>
       <c r="F15" t="n">
-        <v>641275</v>
+        <v>12680871</v>
       </c>
       <c r="G15" t="n">
-        <v>191789</v>
+        <v>466829</v>
       </c>
       <c r="H15" t="n">
-        <v>833064</v>
+        <v>13147700</v>
       </c>
       <c r="I15" t="n">
-        <v>3572787</v>
+        <v>21849702</v>
       </c>
       <c r="J15" t="n">
-        <v>4405851</v>
+        <v>34997402</v>
       </c>
       <c r="K15" t="n">
-        <v>2202176</v>
+        <v>6265714</v>
       </c>
       <c r="L15" t="n">
-        <v>2202176</v>
+        <v>6265714</v>
       </c>
       <c r="M15" t="n">
-        <v>-41195</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-249547</v>
+        <v>2732357</v>
       </c>
       <c r="O15" t="n">
-        <v>22.57</v>
+        <v>52.16</v>
       </c>
       <c r="P15" t="n">
-        <v>-8.73</v>
+        <v>4.62</v>
       </c>
       <c r="Q15" t="n">
-        <v>-8.859999999999999</v>
+        <v>5.35</v>
       </c>
       <c r="R15" t="n">
-        <v>22.78</v>
+        <v>17.9</v>
       </c>
       <c r="S15" t="n">
-        <v>-10.69</v>
+        <v>3.53</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2377</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>20131231</v>
       </c>
       <c r="C16" t="n">
-        <v>496426129</v>
+        <v>35459063</v>
       </c>
       <c r="D16" t="n">
-        <v>61659110</v>
+        <v>6181591</v>
       </c>
       <c r="E16" t="n">
-        <v>558085239</v>
+        <v>41640654</v>
       </c>
       <c r="F16" t="n">
-        <v>392709068</v>
+        <v>18462120</v>
       </c>
       <c r="G16" t="n">
-        <v>34289341</v>
+        <v>240948</v>
       </c>
       <c r="H16" t="n">
-        <v>426998409</v>
+        <v>18703068</v>
       </c>
       <c r="I16" t="n">
-        <v>131086830</v>
+        <v>22937586</v>
       </c>
       <c r="J16" t="n">
-        <v>558085239</v>
+        <v>41640654</v>
       </c>
       <c r="K16" t="n">
-        <v>38626274</v>
+        <v>8448562</v>
       </c>
       <c r="L16" t="n">
-        <v>38626274</v>
+        <v>8448562</v>
       </c>
       <c r="M16" t="n">
-        <v>-333094</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>24217397</v>
+        <v>2730303</v>
       </c>
       <c r="O16" t="n">
-        <v>-18.47</v>
+        <v>130.39</v>
       </c>
       <c r="P16" t="n">
-        <v>2.17</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.75</v>
+        <v>3.8</v>
       </c>
       <c r="R16" t="n">
-        <v>4.24</v>
+        <v>12.88</v>
       </c>
       <c r="S16" t="n">
-        <v>1.48</v>
+        <v>3.31</v>
       </c>
       <c r="T16" t="n">
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>1</v>
@@ -1739,150 +1739,150 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2387</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>20131231</v>
       </c>
       <c r="C17" t="n">
-        <v>9591835</v>
+        <v>2564201</v>
       </c>
       <c r="D17" t="n">
-        <v>4783501</v>
+        <v>1841650</v>
       </c>
       <c r="E17" t="n">
-        <v>14375336</v>
+        <v>4405851</v>
       </c>
       <c r="F17" t="n">
-        <v>5345194</v>
+        <v>641275</v>
       </c>
       <c r="G17" t="n">
-        <v>1110969</v>
+        <v>191789</v>
       </c>
       <c r="H17" t="n">
-        <v>6456163</v>
+        <v>833064</v>
       </c>
       <c r="I17" t="n">
-        <v>7919173</v>
+        <v>3572787</v>
       </c>
       <c r="J17" t="n">
-        <v>14375336</v>
+        <v>4405851</v>
       </c>
       <c r="K17" t="n">
-        <v>3637803</v>
+        <v>2202176</v>
       </c>
       <c r="L17" t="n">
-        <v>3637803</v>
+        <v>2202176</v>
       </c>
       <c r="M17" t="n">
-        <v>-128312</v>
+        <v>-41195</v>
       </c>
       <c r="N17" t="n">
-        <v>198368</v>
+        <v>-249547</v>
       </c>
       <c r="O17" t="n">
-        <v>234.29</v>
+        <v>22.57</v>
       </c>
       <c r="P17" t="n">
-        <v>0.78</v>
+        <v>-8.73</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.55</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="R17" t="n">
-        <v>11.05</v>
+        <v>22.78</v>
       </c>
       <c r="S17" t="n">
-        <v>2.95</v>
+        <v>-10.69</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>20131231</v>
       </c>
       <c r="C18" t="n">
-        <v>15411630</v>
+        <v>496426129</v>
       </c>
       <c r="D18" t="n">
-        <v>12124454</v>
+        <v>61659110</v>
       </c>
       <c r="E18" t="n">
-        <v>27536084</v>
+        <v>558085239</v>
       </c>
       <c r="F18" t="n">
-        <v>7205324</v>
+        <v>392709068</v>
       </c>
       <c r="G18" t="n">
-        <v>910570</v>
+        <v>34289341</v>
       </c>
       <c r="H18" t="n">
-        <v>8115894</v>
+        <v>426998409</v>
       </c>
       <c r="I18" t="n">
-        <v>19420190</v>
+        <v>131086830</v>
       </c>
       <c r="J18" t="n">
-        <v>27536084</v>
+        <v>558085239</v>
       </c>
       <c r="K18" t="n">
-        <v>5669249</v>
+        <v>38626274</v>
       </c>
       <c r="L18" t="n">
-        <v>5694000</v>
+        <v>38626274</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-333094</v>
       </c>
       <c r="N18" t="n">
-        <v>5168546</v>
+        <v>24217397</v>
       </c>
       <c r="O18" t="n">
-        <v>18.22</v>
+        <v>-18.47</v>
       </c>
       <c r="P18" t="n">
-        <v>13.46</v>
+        <v>2.17</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.86</v>
+        <v>2.75</v>
       </c>
       <c r="R18" t="n">
-        <v>41.05</v>
+        <v>4.24</v>
       </c>
       <c r="S18" t="n">
-        <v>15.23</v>
+        <v>1.48</v>
       </c>
       <c r="T18" t="n">
         <v>3</v>
@@ -1891,478 +1891,478 @@
         <v>1</v>
       </c>
       <c r="V18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2397</t>
+          <t>2387</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>20131231</v>
       </c>
       <c r="C19" t="n">
-        <v>3019190</v>
+        <v>9591835</v>
       </c>
       <c r="D19" t="n">
-        <v>393722</v>
+        <v>4783501</v>
       </c>
       <c r="E19" t="n">
-        <v>3412912</v>
+        <v>14375336</v>
       </c>
       <c r="F19" t="n">
-        <v>469703</v>
+        <v>5345194</v>
       </c>
       <c r="G19" t="n">
-        <v>100787</v>
+        <v>1110969</v>
       </c>
       <c r="H19" t="n">
-        <v>570490</v>
+        <v>6456163</v>
       </c>
       <c r="I19" t="n">
-        <v>2842422</v>
+        <v>7919173</v>
       </c>
       <c r="J19" t="n">
-        <v>3412912</v>
+        <v>14375336</v>
       </c>
       <c r="K19" t="n">
-        <v>1148399</v>
+        <v>3637803</v>
       </c>
       <c r="L19" t="n">
-        <v>1148399</v>
+        <v>3637803</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-128312</v>
       </c>
       <c r="N19" t="n">
-        <v>310826</v>
+        <v>198368</v>
       </c>
       <c r="O19" t="n">
-        <v>21.5</v>
+        <v>234.29</v>
       </c>
       <c r="P19" t="n">
-        <v>10.96</v>
+        <v>0.78</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.45</v>
+        <v>1.55</v>
       </c>
       <c r="R19" t="n">
-        <v>30.66</v>
+        <v>11.05</v>
       </c>
       <c r="S19" t="n">
-        <v>11.17</v>
+        <v>2.95</v>
       </c>
       <c r="T19" t="n">
         <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>20131231</v>
       </c>
       <c r="C20" t="n">
-        <v>3255415</v>
+        <v>15411630</v>
       </c>
       <c r="D20" t="n">
-        <v>593593</v>
+        <v>12124454</v>
       </c>
       <c r="E20" t="n">
-        <v>3849008</v>
+        <v>27536084</v>
       </c>
       <c r="F20" t="n">
-        <v>1171792</v>
+        <v>7205324</v>
       </c>
       <c r="G20" t="n">
-        <v>86427</v>
+        <v>910570</v>
       </c>
       <c r="H20" t="n">
-        <v>1258219</v>
+        <v>8115894</v>
       </c>
       <c r="I20" t="n">
-        <v>2590789</v>
+        <v>19420190</v>
       </c>
       <c r="J20" t="n">
-        <v>3849008</v>
+        <v>27536084</v>
       </c>
       <c r="K20" t="n">
-        <v>1781000</v>
+        <v>5669249</v>
       </c>
       <c r="L20" t="n">
-        <v>1781000</v>
+        <v>5694000</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>157920</v>
+        <v>5168546</v>
       </c>
       <c r="O20" t="n">
-        <v>4.88</v>
+        <v>18.22</v>
       </c>
       <c r="P20" t="n">
-        <v>2.66</v>
+        <v>13.46</v>
       </c>
       <c r="Q20" t="n">
-        <v>3.43</v>
+        <v>16.86</v>
       </c>
       <c r="R20" t="n">
-        <v>9.44</v>
+        <v>41.05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.18</v>
+        <v>15.23</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>1</v>
       </c>
       <c r="V20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2405</t>
+          <t>2397</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20131231</v>
       </c>
       <c r="C21" t="n">
-        <v>8023000</v>
+        <v>3019190</v>
       </c>
       <c r="D21" t="n">
-        <v>897388</v>
+        <v>393722</v>
       </c>
       <c r="E21" t="n">
-        <v>8920388</v>
+        <v>3412912</v>
       </c>
       <c r="F21" t="n">
-        <v>4586480</v>
+        <v>469703</v>
       </c>
       <c r="G21" t="n">
-        <v>76718</v>
+        <v>100787</v>
       </c>
       <c r="H21" t="n">
-        <v>4663198</v>
+        <v>570490</v>
       </c>
       <c r="I21" t="n">
-        <v>4257190</v>
+        <v>2842422</v>
       </c>
       <c r="J21" t="n">
-        <v>8920388</v>
+        <v>3412912</v>
       </c>
       <c r="K21" t="n">
-        <v>3503603</v>
+        <v>1148399</v>
       </c>
       <c r="L21" t="n">
-        <v>3503603</v>
+        <v>1148399</v>
       </c>
       <c r="M21" t="n">
-        <v>-29141</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>509955</v>
+        <v>310826</v>
       </c>
       <c r="O21" t="n">
-        <v>42.53</v>
+        <v>21.5</v>
       </c>
       <c r="P21" t="n">
-        <v>2.77</v>
+        <v>10.96</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.12</v>
+        <v>13.45</v>
       </c>
       <c r="R21" t="n">
-        <v>12.13</v>
+        <v>30.66</v>
       </c>
       <c r="S21" t="n">
-        <v>3.24</v>
+        <v>11.17</v>
       </c>
       <c r="T21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2417</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20131231</v>
       </c>
       <c r="C22" t="n">
-        <v>1915712</v>
+        <v>3255415</v>
       </c>
       <c r="D22" t="n">
-        <v>1964605</v>
+        <v>593593</v>
       </c>
       <c r="E22" t="n">
-        <v>3880317</v>
+        <v>3849008</v>
       </c>
       <c r="F22" t="n">
-        <v>329997</v>
+        <v>1171792</v>
       </c>
       <c r="G22" t="n">
-        <v>4628</v>
+        <v>86427</v>
       </c>
       <c r="H22" t="n">
-        <v>334625</v>
+        <v>1258219</v>
       </c>
       <c r="I22" t="n">
-        <v>3545692</v>
+        <v>2590789</v>
       </c>
       <c r="J22" t="n">
-        <v>3880317</v>
+        <v>3849008</v>
       </c>
       <c r="K22" t="n">
-        <v>2069453</v>
+        <v>1781000</v>
       </c>
       <c r="L22" t="n">
-        <v>2069453</v>
+        <v>1781000</v>
       </c>
       <c r="M22" t="n">
-        <v>-73334</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-151088</v>
+        <v>157920</v>
       </c>
       <c r="O22" t="n">
-        <v>-66277.13</v>
+        <v>4.88</v>
       </c>
       <c r="P22" t="n">
-        <v>-16.11</v>
+        <v>2.66</v>
       </c>
       <c r="Q22" t="n">
-        <v>-14.25</v>
+        <v>3.43</v>
       </c>
       <c r="R22" t="n">
-        <v>37.8</v>
+        <v>9.44</v>
       </c>
       <c r="S22" t="n">
-        <v>-18.51</v>
+        <v>1.18</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2425</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>20131231</v>
       </c>
       <c r="C23" t="n">
-        <v>2499085</v>
+        <v>8023000</v>
       </c>
       <c r="D23" t="n">
-        <v>186975</v>
+        <v>897388</v>
       </c>
       <c r="E23" t="n">
-        <v>2686060</v>
+        <v>8920388</v>
       </c>
       <c r="F23" t="n">
-        <v>1297418</v>
+        <v>4586480</v>
       </c>
       <c r="G23" t="n">
-        <v>1204</v>
+        <v>76718</v>
       </c>
       <c r="H23" t="n">
-        <v>1298622</v>
+        <v>4663198</v>
       </c>
       <c r="I23" t="n">
-        <v>1387438</v>
+        <v>4257190</v>
       </c>
       <c r="J23" t="n">
-        <v>2686060</v>
+        <v>8920388</v>
       </c>
       <c r="K23" t="n">
-        <v>945059</v>
+        <v>3503603</v>
       </c>
       <c r="L23" t="n">
-        <v>945059</v>
+        <v>3503603</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>-29141</v>
       </c>
       <c r="N23" t="n">
-        <v>353762</v>
+        <v>509955</v>
       </c>
       <c r="O23" t="n">
-        <v>334.55</v>
+        <v>42.53</v>
       </c>
       <c r="P23" t="n">
-        <v>5.73</v>
+        <v>2.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>5.76</v>
+        <v>3.12</v>
       </c>
       <c r="R23" t="n">
-        <v>7.29</v>
+        <v>12.13</v>
       </c>
       <c r="S23" t="n">
-        <v>5.96</v>
+        <v>3.24</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2465</t>
+          <t>2417</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>20131231</v>
       </c>
       <c r="C24" t="n">
-        <v>896439</v>
+        <v>1915712</v>
       </c>
       <c r="D24" t="n">
-        <v>533834</v>
+        <v>1964605</v>
       </c>
       <c r="E24" t="n">
-        <v>1430273</v>
+        <v>3880317</v>
       </c>
       <c r="F24" t="n">
-        <v>695072</v>
+        <v>329997</v>
       </c>
       <c r="G24" t="n">
-        <v>739</v>
+        <v>4628</v>
       </c>
       <c r="H24" t="n">
-        <v>695811</v>
+        <v>334625</v>
       </c>
       <c r="I24" t="n">
-        <v>734462</v>
+        <v>3545692</v>
       </c>
       <c r="J24" t="n">
-        <v>1430273</v>
+        <v>3880317</v>
       </c>
       <c r="K24" t="n">
-        <v>1071746</v>
+        <v>2069453</v>
       </c>
       <c r="L24" t="n">
-        <v>1071746</v>
+        <v>2069453</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>-73334</v>
       </c>
       <c r="N24" t="n">
-        <v>-99635</v>
+        <v>-151088</v>
       </c>
       <c r="O24" t="n">
-        <v>20.18</v>
+        <v>-66277.13</v>
       </c>
       <c r="P24" t="n">
-        <v>-5.06</v>
+        <v>-16.11</v>
       </c>
       <c r="Q24" t="n">
-        <v>-4.96</v>
+        <v>-14.25</v>
       </c>
       <c r="R24" t="n">
-        <v>14.64</v>
+        <v>37.8</v>
       </c>
       <c r="S24" t="n">
-        <v>-5.78</v>
+        <v>-18.51</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2380,311 +2380,311 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2425</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>20131231</v>
       </c>
       <c r="C25" t="n">
-        <v>3224975</v>
+        <v>2499085</v>
       </c>
       <c r="D25" t="n">
-        <v>1382455</v>
+        <v>186975</v>
       </c>
       <c r="E25" t="n">
-        <v>4607430</v>
+        <v>2686060</v>
       </c>
       <c r="F25" t="n">
-        <v>544856</v>
+        <v>1297418</v>
       </c>
       <c r="G25" t="n">
-        <v>52751</v>
+        <v>1204</v>
       </c>
       <c r="H25" t="n">
-        <v>597607</v>
+        <v>1298622</v>
       </c>
       <c r="I25" t="n">
-        <v>4009823</v>
+        <v>1387438</v>
       </c>
       <c r="J25" t="n">
-        <v>4607430</v>
+        <v>2686060</v>
       </c>
       <c r="K25" t="n">
-        <v>2824957</v>
+        <v>945059</v>
       </c>
       <c r="L25" t="n">
-        <v>2824957</v>
+        <v>945059</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>123938</v>
+        <v>353762</v>
       </c>
       <c r="O25" t="n">
-        <v>-59.67</v>
+        <v>334.55</v>
       </c>
       <c r="P25" t="n">
-        <v>2.78</v>
+        <v>5.73</v>
       </c>
       <c r="Q25" t="n">
-        <v>7.3</v>
+        <v>5.76</v>
       </c>
       <c r="R25" t="n">
-        <v>46.2</v>
+        <v>7.29</v>
       </c>
       <c r="S25" t="n">
-        <v>2.01</v>
+        <v>5.96</v>
       </c>
       <c r="T25" t="n">
         <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
         <v>2</v>
       </c>
       <c r="X25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3002</t>
+          <t>2465</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>20131231</v>
       </c>
       <c r="C26" t="n">
-        <v>1346040</v>
+        <v>896439</v>
       </c>
       <c r="D26" t="n">
-        <v>335914</v>
+        <v>533834</v>
       </c>
       <c r="E26" t="n">
-        <v>1681954</v>
+        <v>1430273</v>
       </c>
       <c r="F26" t="n">
-        <v>111202</v>
+        <v>695072</v>
       </c>
       <c r="G26" t="n">
-        <v>230548</v>
+        <v>739</v>
       </c>
       <c r="H26" t="n">
-        <v>341750</v>
+        <v>695811</v>
       </c>
       <c r="I26" t="n">
-        <v>1340204</v>
+        <v>734462</v>
       </c>
       <c r="J26" t="n">
-        <v>1681954</v>
+        <v>1430273</v>
       </c>
       <c r="K26" t="n">
-        <v>1020000</v>
+        <v>1071746</v>
       </c>
       <c r="L26" t="n">
-        <v>1020000</v>
+        <v>1071746</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>61305</v>
+        <v>-99635</v>
       </c>
       <c r="O26" t="n">
-        <v>-10.15</v>
+        <v>20.18</v>
       </c>
       <c r="P26" t="n">
-        <v>10.59</v>
+        <v>-5.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.79</v>
+        <v>-4.96</v>
       </c>
       <c r="R26" t="n">
-        <v>30.6</v>
+        <v>14.64</v>
       </c>
       <c r="S26" t="n">
-        <v>5.1</v>
+        <v>-5.78</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3005</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>20131231</v>
       </c>
       <c r="C27" t="n">
-        <v>12248408</v>
+        <v>3224975</v>
       </c>
       <c r="D27" t="n">
-        <v>9655843</v>
+        <v>1382455</v>
       </c>
       <c r="E27" t="n">
-        <v>21904251</v>
+        <v>4607430</v>
       </c>
       <c r="F27" t="n">
-        <v>7362041</v>
+        <v>544856</v>
       </c>
       <c r="G27" t="n">
-        <v>1162419</v>
+        <v>52751</v>
       </c>
       <c r="H27" t="n">
-        <v>8524460</v>
+        <v>597607</v>
       </c>
       <c r="I27" t="n">
-        <v>13379791</v>
+        <v>4009823</v>
       </c>
       <c r="J27" t="n">
-        <v>21904251</v>
+        <v>4607430</v>
       </c>
       <c r="K27" t="n">
-        <v>5820362</v>
+        <v>2824957</v>
       </c>
       <c r="L27" t="n">
-        <v>5820362</v>
+        <v>2824957</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>608409</v>
+        <v>123938</v>
       </c>
       <c r="O27" t="n">
-        <v>9.48</v>
+        <v>-59.67</v>
       </c>
       <c r="P27" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>7.3</v>
       </c>
       <c r="R27" t="n">
-        <v>19.35</v>
+        <v>46.2</v>
       </c>
       <c r="S27" t="n">
-        <v>3.96</v>
+        <v>2.01</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>1</v>
       </c>
       <c r="W27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3013</t>
+          <t>3002</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>20131231</v>
       </c>
       <c r="C28" t="n">
-        <v>1606275</v>
+        <v>1346040</v>
       </c>
       <c r="D28" t="n">
-        <v>1980741</v>
+        <v>335914</v>
       </c>
       <c r="E28" t="n">
-        <v>3587016</v>
+        <v>1681954</v>
       </c>
       <c r="F28" t="n">
-        <v>1005250</v>
+        <v>111202</v>
       </c>
       <c r="G28" t="n">
-        <v>552780</v>
+        <v>230548</v>
       </c>
       <c r="H28" t="n">
-        <v>1558030</v>
+        <v>341750</v>
       </c>
       <c r="I28" t="n">
-        <v>2028986</v>
+        <v>1340204</v>
       </c>
       <c r="J28" t="n">
-        <v>3587016</v>
+        <v>1681954</v>
       </c>
       <c r="K28" t="n">
-        <v>1821710</v>
+        <v>1020000</v>
       </c>
       <c r="L28" t="n">
-        <v>1821710</v>
+        <v>1020000</v>
       </c>
       <c r="M28" t="n">
-        <v>-79106</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>118218</v>
+        <v>61305</v>
       </c>
       <c r="O28" t="n">
-        <v>150.51</v>
+        <v>-10.15</v>
       </c>
       <c r="P28" t="n">
-        <v>3.58</v>
+        <v>10.59</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.43</v>
+        <v>12.79</v>
       </c>
       <c r="R28" t="n">
-        <v>20.34</v>
+        <v>30.6</v>
       </c>
       <c r="S28" t="n">
-        <v>4.65</v>
+        <v>5.1</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X28" t="n">
         <v>2</v>
@@ -2696,68 +2696,68 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3017</t>
+          <t>3005</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>20131231</v>
       </c>
       <c r="C29" t="n">
-        <v>16522055</v>
+        <v>12248408</v>
       </c>
       <c r="D29" t="n">
-        <v>5374350</v>
+        <v>9655843</v>
       </c>
       <c r="E29" t="n">
-        <v>21896405</v>
+        <v>21904251</v>
       </c>
       <c r="F29" t="n">
-        <v>12153909</v>
+        <v>7362041</v>
       </c>
       <c r="G29" t="n">
-        <v>2324691</v>
+        <v>1162419</v>
       </c>
       <c r="H29" t="n">
-        <v>14478600</v>
+        <v>8524460</v>
       </c>
       <c r="I29" t="n">
-        <v>7417805</v>
+        <v>13379791</v>
       </c>
       <c r="J29" t="n">
-        <v>21896405</v>
+        <v>21904251</v>
       </c>
       <c r="K29" t="n">
-        <v>3533101</v>
+        <v>5820362</v>
       </c>
       <c r="L29" t="n">
-        <v>3533101</v>
+        <v>5820362</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>369363</v>
+        <v>608409</v>
       </c>
       <c r="O29" t="n">
-        <v>516.3</v>
+        <v>9.48</v>
       </c>
       <c r="P29" t="n">
-        <v>1.19</v>
+        <v>3.28</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="R29" t="n">
-        <v>11.88</v>
+        <v>19.35</v>
       </c>
       <c r="S29" t="n">
-        <v>1.64</v>
+        <v>3.96</v>
       </c>
       <c r="T29" t="n">
         <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
         <v>1</v>
@@ -2766,86 +2766,86 @@
         <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3022</t>
+          <t>3013</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>20131231</v>
       </c>
       <c r="C30" t="n">
-        <v>13074810</v>
+        <v>1606275</v>
       </c>
       <c r="D30" t="n">
-        <v>3853303</v>
+        <v>1980741</v>
       </c>
       <c r="E30" t="n">
-        <v>16928113</v>
+        <v>3587016</v>
       </c>
       <c r="F30" t="n">
-        <v>9253240</v>
+        <v>1005250</v>
       </c>
       <c r="G30" t="n">
-        <v>656606</v>
+        <v>552780</v>
       </c>
       <c r="H30" t="n">
-        <v>9909846</v>
+        <v>1558030</v>
       </c>
       <c r="I30" t="n">
-        <v>7018267</v>
+        <v>2028986</v>
       </c>
       <c r="J30" t="n">
-        <v>16928113</v>
+        <v>3587016</v>
       </c>
       <c r="K30" t="n">
-        <v>3097306</v>
+        <v>1821710</v>
       </c>
       <c r="L30" t="n">
-        <v>3097306</v>
+        <v>1821710</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>-79106</v>
       </c>
       <c r="N30" t="n">
-        <v>1372206</v>
+        <v>118218</v>
       </c>
       <c r="O30" t="n">
-        <v>10.68</v>
+        <v>150.51</v>
       </c>
       <c r="P30" t="n">
-        <v>22.82</v>
+        <v>3.58</v>
       </c>
       <c r="Q30" t="n">
-        <v>28.06</v>
+        <v>4.43</v>
       </c>
       <c r="R30" t="n">
-        <v>32.05</v>
+        <v>20.34</v>
       </c>
       <c r="S30" t="n">
-        <v>8.42</v>
+        <v>4.65</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y30" t="n">
         <v>2</v>
@@ -2854,554 +2854,554 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3046</t>
+          <t>3017</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>20131231</v>
       </c>
       <c r="C31" t="n">
-        <v>1564844</v>
+        <v>16522055</v>
       </c>
       <c r="D31" t="n">
-        <v>459611</v>
+        <v>5374350</v>
       </c>
       <c r="E31" t="n">
-        <v>2024455</v>
+        <v>21896405</v>
       </c>
       <c r="F31" t="n">
-        <v>674808</v>
+        <v>12153909</v>
       </c>
       <c r="G31" t="n">
-        <v>86651</v>
+        <v>2324691</v>
       </c>
       <c r="H31" t="n">
-        <v>761459</v>
+        <v>14478600</v>
       </c>
       <c r="I31" t="n">
-        <v>1262996</v>
+        <v>7417805</v>
       </c>
       <c r="J31" t="n">
-        <v>2024455</v>
+        <v>21896405</v>
       </c>
       <c r="K31" t="n">
-        <v>1716490</v>
+        <v>3533101</v>
       </c>
       <c r="L31" t="n">
-        <v>1716490</v>
+        <v>3533101</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-166425</v>
+        <v>369363</v>
       </c>
       <c r="O31" t="n">
-        <v>-459.35</v>
+        <v>516.3</v>
       </c>
       <c r="P31" t="n">
-        <v>-13.94</v>
+        <v>1.19</v>
       </c>
       <c r="Q31" t="n">
-        <v>-13.33</v>
+        <v>1.85</v>
       </c>
       <c r="R31" t="n">
-        <v>32.67</v>
+        <v>11.88</v>
       </c>
       <c r="S31" t="n">
-        <v>-16.12</v>
+        <v>1.64</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3057</t>
+          <t>3022</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>20131231</v>
       </c>
       <c r="C32" t="n">
-        <v>2154057</v>
+        <v>13074810</v>
       </c>
       <c r="D32" t="n">
-        <v>1055559</v>
+        <v>3853303</v>
       </c>
       <c r="E32" t="n">
-        <v>3209616</v>
+        <v>16928113</v>
       </c>
       <c r="F32" t="n">
-        <v>881747</v>
+        <v>9253240</v>
       </c>
       <c r="G32" t="n">
-        <v>109894</v>
+        <v>656606</v>
       </c>
       <c r="H32" t="n">
-        <v>991641</v>
+        <v>9909846</v>
       </c>
       <c r="I32" t="n">
-        <v>2217975</v>
+        <v>7018267</v>
       </c>
       <c r="J32" t="n">
-        <v>3209616</v>
+        <v>16928113</v>
       </c>
       <c r="K32" t="n">
-        <v>1583465</v>
+        <v>3097306</v>
       </c>
       <c r="L32" t="n">
-        <v>1583465</v>
+        <v>3097306</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>378034</v>
+        <v>1372206</v>
       </c>
       <c r="O32" t="n">
-        <v>222.41</v>
+        <v>10.68</v>
       </c>
       <c r="P32" t="n">
-        <v>9.16</v>
+        <v>22.82</v>
       </c>
       <c r="Q32" t="n">
-        <v>10.45</v>
+        <v>28.06</v>
       </c>
       <c r="R32" t="n">
-        <v>42.19</v>
+        <v>32.05</v>
       </c>
       <c r="S32" t="n">
-        <v>10.23</v>
+        <v>8.42</v>
       </c>
       <c r="T32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>3</v>
       </c>
       <c r="W32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X32" t="n">
         <v>3</v>
       </c>
       <c r="Y32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3060</t>
+          <t>3046</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>20131231</v>
       </c>
       <c r="C33" t="n">
-        <v>4730243</v>
+        <v>1564844</v>
       </c>
       <c r="D33" t="n">
-        <v>2290390</v>
+        <v>459611</v>
       </c>
       <c r="E33" t="n">
-        <v>7020633</v>
+        <v>2024455</v>
       </c>
       <c r="F33" t="n">
-        <v>1649895</v>
+        <v>674808</v>
       </c>
       <c r="G33" t="n">
-        <v>560771</v>
+        <v>86651</v>
       </c>
       <c r="H33" t="n">
-        <v>2210666</v>
+        <v>761459</v>
       </c>
       <c r="I33" t="n">
-        <v>4809967</v>
+        <v>1262996</v>
       </c>
       <c r="J33" t="n">
-        <v>7020633</v>
+        <v>2024455</v>
       </c>
       <c r="K33" t="n">
-        <v>1742020</v>
+        <v>1716490</v>
       </c>
       <c r="L33" t="n">
-        <v>1742020</v>
+        <v>1716490</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>727406</v>
+        <v>-166425</v>
       </c>
       <c r="O33" t="n">
-        <v>-47.25</v>
+        <v>-459.35</v>
       </c>
       <c r="P33" t="n">
-        <v>8.02</v>
+        <v>-13.94</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.06</v>
+        <v>-13.33</v>
       </c>
       <c r="R33" t="n">
-        <v>17.86</v>
+        <v>32.67</v>
       </c>
       <c r="S33" t="n">
-        <v>7.81</v>
+        <v>-16.12</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3057</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>20131231</v>
       </c>
       <c r="C34" t="n">
-        <v>216306422</v>
+        <v>2154057</v>
       </c>
       <c r="D34" t="n">
-        <v>54235352</v>
+        <v>1055559</v>
       </c>
       <c r="E34" t="n">
-        <v>270541774</v>
+        <v>3209616</v>
       </c>
       <c r="F34" t="n">
-        <v>168348939</v>
+        <v>881747</v>
       </c>
       <c r="G34" t="n">
-        <v>35996817</v>
+        <v>109894</v>
       </c>
       <c r="H34" t="n">
-        <v>204345756</v>
+        <v>991641</v>
       </c>
       <c r="I34" t="n">
-        <v>66196018</v>
+        <v>2217975</v>
       </c>
       <c r="J34" t="n">
-        <v>270541774</v>
+        <v>3209616</v>
       </c>
       <c r="K34" t="n">
-        <v>23781603</v>
+        <v>1583465</v>
       </c>
       <c r="L34" t="n">
-        <v>23781603</v>
+        <v>1583465</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>7915187</v>
+        <v>378034</v>
       </c>
       <c r="O34" t="n">
-        <v>-20.62</v>
+        <v>222.41</v>
       </c>
       <c r="P34" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.27</v>
+        <v>10.45</v>
       </c>
       <c r="R34" t="n">
-        <v>4.84</v>
+        <v>42.19</v>
       </c>
       <c r="S34" t="n">
-        <v>0.98</v>
+        <v>10.23</v>
       </c>
       <c r="T34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>20131231</v>
       </c>
       <c r="C35" t="n">
-        <v>979107</v>
+        <v>4730243</v>
       </c>
       <c r="D35" t="n">
-        <v>615853</v>
+        <v>2290390</v>
       </c>
       <c r="E35" t="n">
-        <v>1594960</v>
+        <v>7020633</v>
       </c>
       <c r="F35" t="n">
-        <v>260465</v>
+        <v>1649895</v>
       </c>
       <c r="G35" t="n">
-        <v>925</v>
+        <v>560771</v>
       </c>
       <c r="H35" t="n">
-        <v>261390</v>
+        <v>2210666</v>
       </c>
       <c r="I35" t="n">
-        <v>1333570</v>
+        <v>4809967</v>
       </c>
       <c r="J35" t="n">
-        <v>1594960</v>
+        <v>7020633</v>
       </c>
       <c r="K35" t="n">
-        <v>510500</v>
+        <v>1742020</v>
       </c>
       <c r="L35" t="n">
-        <v>510500</v>
+        <v>1742020</v>
       </c>
       <c r="M35" t="n">
-        <v>-43626</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>254045</v>
+        <v>727406</v>
       </c>
       <c r="O35" t="n">
-        <v>46.51</v>
+        <v>-47.25</v>
       </c>
       <c r="P35" t="n">
-        <v>14.88</v>
+        <v>8.02</v>
       </c>
       <c r="Q35" t="n">
-        <v>17.01</v>
+        <v>11.06</v>
       </c>
       <c r="R35" t="n">
-        <v>35.17</v>
+        <v>17.86</v>
       </c>
       <c r="S35" t="n">
-        <v>15.85</v>
+        <v>7.81</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3494</t>
+          <t>3416</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>20131231</v>
       </c>
       <c r="C36" t="n">
-        <v>1916812</v>
+        <v>979107</v>
       </c>
       <c r="D36" t="n">
-        <v>2077995</v>
+        <v>615853</v>
       </c>
       <c r="E36" t="n">
-        <v>3994807</v>
+        <v>1594960</v>
       </c>
       <c r="F36" t="n">
-        <v>703873</v>
+        <v>260465</v>
       </c>
       <c r="G36" t="n">
-        <v>667850</v>
+        <v>925</v>
       </c>
       <c r="H36" t="n">
-        <v>1371723</v>
+        <v>261390</v>
       </c>
       <c r="I36" t="n">
-        <v>2623084</v>
+        <v>1333570</v>
       </c>
       <c r="J36" t="n">
-        <v>3994807</v>
+        <v>1594960</v>
       </c>
       <c r="K36" t="n">
-        <v>1721735</v>
+        <v>510500</v>
       </c>
       <c r="L36" t="n">
-        <v>1721735</v>
+        <v>510500</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>-43626</v>
       </c>
       <c r="N36" t="n">
-        <v>-109475</v>
+        <v>254045</v>
       </c>
       <c r="O36" t="n">
-        <v>-2.48</v>
+        <v>46.51</v>
       </c>
       <c r="P36" t="n">
-        <v>-4.99</v>
+        <v>14.88</v>
       </c>
       <c r="Q36" t="n">
-        <v>-5.31</v>
+        <v>17.01</v>
       </c>
       <c r="R36" t="n">
-        <v>21.61</v>
+        <v>35.17</v>
       </c>
       <c r="S36" t="n">
-        <v>-5.33</v>
+        <v>15.85</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>3494</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>20131231</v>
       </c>
       <c r="C37" t="n">
-        <v>6849443</v>
+        <v>1916812</v>
       </c>
       <c r="D37" t="n">
-        <v>2154262</v>
+        <v>2077995</v>
       </c>
       <c r="E37" t="n">
-        <v>9003705</v>
+        <v>3994807</v>
       </c>
       <c r="F37" t="n">
-        <v>2635505</v>
+        <v>703873</v>
       </c>
       <c r="G37" t="n">
-        <v>20560</v>
+        <v>667850</v>
       </c>
       <c r="H37" t="n">
-        <v>2656065</v>
+        <v>1371723</v>
       </c>
       <c r="I37" t="n">
-        <v>6347640</v>
+        <v>2623084</v>
       </c>
       <c r="J37" t="n">
-        <v>9003705</v>
+        <v>3994807</v>
       </c>
       <c r="K37" t="n">
-        <v>1150416</v>
+        <v>1721735</v>
       </c>
       <c r="L37" t="n">
-        <v>1150416</v>
+        <v>1721735</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1267141</v>
+        <v>-109475</v>
       </c>
       <c r="O37" t="n">
-        <v>2.15</v>
+        <v>-2.48</v>
       </c>
       <c r="P37" t="n">
-        <v>10.21</v>
+        <v>-4.99</v>
       </c>
       <c r="Q37" t="n">
-        <v>12.23</v>
+        <v>-5.31</v>
       </c>
       <c r="R37" t="n">
-        <v>21.52</v>
+        <v>21.61</v>
       </c>
       <c r="S37" t="n">
-        <v>11.14</v>
+        <v>-5.33</v>
       </c>
       <c r="T37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>1</v>
       </c>
       <c r="V37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4635,7 +4635,7 @@
         <v>358034</v>
       </c>
       <c r="O53" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P53" t="n">
         <v>9.630000000000001</v>
@@ -4714,7 +4714,7 @@
         <v>-8911</v>
       </c>
       <c r="O54" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P54" t="n">
         <v>-2.09</v>
@@ -4793,13 +4793,13 @@
         <v>2017072.438596491</v>
       </c>
       <c r="O55" t="n">
-        <v>-1159.094727272727</v>
+        <v>-1159.094727272728</v>
       </c>
       <c r="P55" t="n">
         <v>3.724035087719298</v>
       </c>
       <c r="Q55" t="n">
-        <v>5.616842105263159</v>
+        <v>5.616842105263158</v>
       </c>
       <c r="R55" t="n">
         <v>21.69333333333333</v>
